--- a/SQL/AddMatchesAndTeams.xlsx
+++ b/SQL/AddMatchesAndTeams.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\CodeScouting\SQL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B495D8E2-7684-4CE0-8324-ECCF2B32F967}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BC7AC30-31C7-4AB8-8D2F-42A213D55264}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3570" yWindow="150" windowWidth="20595" windowHeight="15030" activeTab="1" xr2:uid="{513571D0-71E3-4A0E-A778-FDE81A5488CF}"/>
+    <workbookView xWindow="2340" yWindow="570" windowWidth="20595" windowHeight="15030" activeTab="1" xr2:uid="{513571D0-71E3-4A0E-A778-FDE81A5488CF}"/>
   </bookViews>
   <sheets>
     <sheet name="Matches" sheetId="1" r:id="rId1"/>
@@ -1294,8 +1294,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31CD9AE4-A577-4702-9F4E-1355FC9F2B1E}">
   <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="I38" sqref="I38:I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1599,7 +1599,7 @@
         <v>44520.600694444445</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1607,7 +1607,7 @@
         <v>44520.607638888891</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1615,7 +1615,7 @@
         <v>44520.614583333336</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1623,7 +1623,7 @@
         <v>44520.621527777781</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1631,7 +1631,7 @@
         <v>44520.628472222219</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1639,15 +1639,37 @@
         <v>44520.635416666664</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
+      <c r="B38">
+        <v>3883</v>
+      </c>
+      <c r="C38">
+        <v>3042</v>
+      </c>
+      <c r="D38">
+        <v>1816</v>
+      </c>
+      <c r="E38">
+        <v>9898</v>
+      </c>
+      <c r="F38">
+        <v>6217</v>
+      </c>
+      <c r="G38">
+        <v>2264</v>
+      </c>
       <c r="H38" s="7">
         <v>44520.642361111109</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I38" t="str">
+        <f>"exec sp_ins_teamMatches 'B5671FC7-28DF-48E3-B2A7-F31F5FC509C3', "&amp;A38&amp;", "&amp;B38&amp;", "&amp;C38&amp;", "&amp;D38&amp;", "&amp;E38&amp;", "&amp;F38&amp;", "&amp;G38&amp;", 'QM', '"&amp;TEXT(H38, "mm/dd/yyyy hh:mm:ss")&amp;"'"</f>
+        <v>exec sp_ins_teamMatches 'B5671FC7-28DF-48E3-B2A7-F31F5FC509C3', 37, 3883, 3042, 1816, 9898, 6217, 2264, 'QM', '11/20/2021 15:25:00'</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1655,12 +1677,34 @@
         <v>44520.649305555555</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>39</v>
+        <v>45</v>
+      </c>
+      <c r="B40">
+        <v>6166</v>
+      </c>
+      <c r="C40">
+        <v>9902</v>
+      </c>
+      <c r="D40">
+        <v>2052</v>
+      </c>
+      <c r="E40">
+        <v>3042</v>
+      </c>
+      <c r="F40">
+        <v>2667</v>
+      </c>
+      <c r="G40">
+        <v>6217</v>
       </c>
       <c r="H40" s="7">
-        <v>44520.65625</v>
+        <v>44520.634722222225</v>
+      </c>
+      <c r="I40" t="str">
+        <f>"exec sp_ins_teamMatches 'B5671FC7-28DF-48E3-B2A7-F31F5FC509C3', "&amp;A40&amp;", "&amp;B40&amp;", "&amp;C40&amp;", "&amp;D40&amp;", "&amp;E40&amp;", "&amp;F40&amp;", "&amp;G40&amp;", 'QM', '"&amp;TEXT(H40, "mm/dd/yyyy hh:mm:ss")&amp;"'"</f>
+        <v>exec sp_ins_teamMatches 'B5671FC7-28DF-48E3-B2A7-F31F5FC509C3', 45, 6166, 9902, 2052, 3042, 2667, 6217, 'QM', '11/20/2021 15:14:00'</v>
       </c>
     </row>
   </sheetData>
